--- a/auto_set_cam.xlsx
+++ b/auto_set_cam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\google-ads\google-ads-20-01-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Budget Type</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Budget Money</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>Ten gi do</t>
   </si>
 </sst>
 </file>
@@ -397,75 +403,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
-    <col min="3" max="3" width="42.54296875" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="42.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>111111</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/auto_set_cam.xlsx
+++ b/auto_set_cam.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Budget Type</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Url Video</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=NLJygtXLUtM</t>
-  </si>
-  <si>
     <t>Long Headline</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>Campaign Name</t>
   </si>
   <si>
-    <t>Ten gi do</t>
+    <t>https://youtube.com/shorts/QonS3UbLaiQ</t>
   </si>
 </sst>
 </file>
@@ -406,7 +403,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,7 +420,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -435,22 +432,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -458,19 +452,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>5000</v>
-      </c>
       <c r="H2">
-        <v>111111</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
